--- a/data/pca/factorExposure/factorExposure_2013-04-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-10.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-3.372630767118976e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001907045583563185</v>
+      </c>
+      <c r="C2">
+        <v>0.03320333417960566</v>
+      </c>
+      <c r="D2">
+        <v>0.005002296808921122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001988114946120566</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005882578273115909</v>
+      </c>
+      <c r="C4">
+        <v>0.08630141073251628</v>
+      </c>
+      <c r="D4">
+        <v>0.07760675904664961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0009416727189374553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01330959662616902</v>
+      </c>
+      <c r="C6">
+        <v>0.1111891364197593</v>
+      </c>
+      <c r="D6">
+        <v>0.03126381930687935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002038348107906891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004589402660706715</v>
+      </c>
+      <c r="C7">
+        <v>0.05612117901640529</v>
+      </c>
+      <c r="D7">
+        <v>0.03123357176849136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0001769182857259121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00557810360525754</v>
+      </c>
+      <c r="C8">
+        <v>0.03790548858979303</v>
+      </c>
+      <c r="D8">
+        <v>0.04021146752403679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004075839074049575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004021018716684122</v>
+      </c>
+      <c r="C9">
+        <v>0.07209818404138438</v>
+      </c>
+      <c r="D9">
+        <v>0.07038110583519454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004401912966681275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005150281777314454</v>
+      </c>
+      <c r="C10">
+        <v>0.06005018459779109</v>
+      </c>
+      <c r="D10">
+        <v>-0.2047672772505553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003534228753937858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005226075387630369</v>
+      </c>
+      <c r="C11">
+        <v>0.08128615062182583</v>
+      </c>
+      <c r="D11">
+        <v>0.06176064029386043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0001130215797763127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003852643124919515</v>
+      </c>
+      <c r="C12">
+        <v>0.0646312802930749</v>
+      </c>
+      <c r="D12">
+        <v>0.04652738727761525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003073733618451146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00851058442876472</v>
+      </c>
+      <c r="C13">
+        <v>0.06767190705498047</v>
+      </c>
+      <c r="D13">
+        <v>0.06764183931025489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001683507224371184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001426249013510538</v>
+      </c>
+      <c r="C14">
+        <v>0.04706687525938869</v>
+      </c>
+      <c r="D14">
+        <v>0.009598847234159606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001034963268507443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005846413620804583</v>
+      </c>
+      <c r="C15">
+        <v>0.04249057389000323</v>
+      </c>
+      <c r="D15">
+        <v>0.03118862883552353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001736045305667828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004840298091720182</v>
+      </c>
+      <c r="C16">
+        <v>0.06681509227807522</v>
+      </c>
+      <c r="D16">
+        <v>0.04637291788190103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0002129176900414261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008755896400889784</v>
+      </c>
+      <c r="C20">
+        <v>0.06820737476657343</v>
+      </c>
+      <c r="D20">
+        <v>0.04947777798148262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004800937790128055</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009830341808172658</v>
+      </c>
+      <c r="C21">
+        <v>0.02398118784083257</v>
+      </c>
+      <c r="D21">
+        <v>0.03469137374739679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01689748623855395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007046699277196393</v>
+      </c>
+      <c r="C22">
+        <v>0.09573961714034709</v>
+      </c>
+      <c r="D22">
+        <v>0.1034588707101866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01722094884642224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006860989175462574</v>
+      </c>
+      <c r="C23">
+        <v>0.09660428383273799</v>
+      </c>
+      <c r="D23">
+        <v>0.1038493727668935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002276752245188841</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004834625918260148</v>
+      </c>
+      <c r="C24">
+        <v>0.07508019135362336</v>
+      </c>
+      <c r="D24">
+        <v>0.05928510107122154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004266413161615601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002604045106887262</v>
+      </c>
+      <c r="C25">
+        <v>0.07866663049477597</v>
+      </c>
+      <c r="D25">
+        <v>0.06454939669513955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006314278588023019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003508649551666728</v>
+      </c>
+      <c r="C26">
+        <v>0.04304393207497136</v>
+      </c>
+      <c r="D26">
+        <v>0.02686371867348264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005480501510349345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001109284666256941</v>
+      </c>
+      <c r="C28">
+        <v>0.1099504431433826</v>
+      </c>
+      <c r="D28">
+        <v>-0.3148540200437092</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001491684779161924</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002978382125514026</v>
+      </c>
+      <c r="C29">
+        <v>0.05001688614524603</v>
+      </c>
+      <c r="D29">
+        <v>0.005913430129221012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003881957800384074</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008499152292795997</v>
+      </c>
+      <c r="C30">
+        <v>0.1427527344962614</v>
+      </c>
+      <c r="D30">
+        <v>0.09909709794937616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001624320065007051</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006019024130741288</v>
+      </c>
+      <c r="C31">
+        <v>0.04610303641754381</v>
+      </c>
+      <c r="D31">
+        <v>0.03160412384106229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0009873570817741733</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003884454102702308</v>
+      </c>
+      <c r="C32">
+        <v>0.04097547851836552</v>
+      </c>
+      <c r="D32">
+        <v>0.01974855135670881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003379569597397088</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007807830707871544</v>
+      </c>
+      <c r="C33">
+        <v>0.08647039016202669</v>
+      </c>
+      <c r="D33">
+        <v>0.07267042716470853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004727069166157909</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003650274698008717</v>
+      </c>
+      <c r="C34">
+        <v>0.05809188612850314</v>
+      </c>
+      <c r="D34">
+        <v>0.04796406813244433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002799673598799621</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004627482684825393</v>
+      </c>
+      <c r="C35">
+        <v>0.04010948020848034</v>
+      </c>
+      <c r="D35">
+        <v>0.01264149824335209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004186447893203347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001408425221577645</v>
+      </c>
+      <c r="C36">
+        <v>0.02546841452101032</v>
+      </c>
+      <c r="D36">
+        <v>0.02153397816777583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002037320461752669</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009387717937915076</v>
+      </c>
+      <c r="C38">
+        <v>0.034724334166836</v>
+      </c>
+      <c r="D38">
+        <v>0.02044978547705498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01334252986822788</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001172071477773312</v>
+      </c>
+      <c r="C39">
+        <v>0.1180375959747637</v>
+      </c>
+      <c r="D39">
+        <v>0.07660588382019082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009623285737160739</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001832738159086424</v>
+      </c>
+      <c r="C40">
+        <v>0.08806320270457367</v>
+      </c>
+      <c r="D40">
+        <v>0.01011761909583357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0004298282448196864</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007088810843209979</v>
+      </c>
+      <c r="C41">
+        <v>0.03777171838814909</v>
+      </c>
+      <c r="D41">
+        <v>0.03589034038519853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003295828631469888</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003415465476662846</v>
+      </c>
+      <c r="C43">
+        <v>0.05109855933561183</v>
+      </c>
+      <c r="D43">
+        <v>0.02537091468867309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002974917900321198</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00322748962427053</v>
+      </c>
+      <c r="C44">
+        <v>0.1142409510350327</v>
+      </c>
+      <c r="D44">
+        <v>0.07220472381000945</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001885882491278436</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002247461994981957</v>
+      </c>
+      <c r="C46">
+        <v>0.03621328509423528</v>
+      </c>
+      <c r="D46">
+        <v>0.02699902617134854</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0008457969955779229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002616157934057868</v>
+      </c>
+      <c r="C47">
+        <v>0.0381253905443694</v>
+      </c>
+      <c r="D47">
+        <v>0.02403325505379683</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003129381200502658</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006317681861193468</v>
+      </c>
+      <c r="C48">
+        <v>0.02969403027134596</v>
+      </c>
+      <c r="D48">
+        <v>0.03269770705495938</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01459579522313159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01429665617269743</v>
+      </c>
+      <c r="C49">
+        <v>0.1811468047692091</v>
+      </c>
+      <c r="D49">
+        <v>0.01164324821499853</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001375837776072986</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003413562517505151</v>
+      </c>
+      <c r="C50">
+        <v>0.04454110665084812</v>
+      </c>
+      <c r="D50">
+        <v>0.03441020507866575</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001259811059797706</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004248683984791751</v>
+      </c>
+      <c r="C51">
+        <v>0.02540787241380998</v>
+      </c>
+      <c r="D51">
+        <v>0.02248955157644419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0002079714040329318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01982026773335771</v>
+      </c>
+      <c r="C53">
+        <v>0.1684302057730595</v>
+      </c>
+      <c r="D53">
+        <v>0.03960825521887347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0007277061025580276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008568010892285656</v>
+      </c>
+      <c r="C54">
+        <v>0.05698867338918852</v>
+      </c>
+      <c r="D54">
+        <v>0.04162589131978299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004128357943909522</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.008993467176062146</v>
+      </c>
+      <c r="C55">
+        <v>0.1088597613949915</v>
+      </c>
+      <c r="D55">
+        <v>0.04576762563517888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002716825616676266</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01931379858969602</v>
+      </c>
+      <c r="C56">
+        <v>0.1758158602506404</v>
+      </c>
+      <c r="D56">
+        <v>0.03922129729165744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007917618169856488</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0191649627233585</v>
+      </c>
+      <c r="C58">
+        <v>0.1089424196983748</v>
+      </c>
+      <c r="D58">
+        <v>0.05520962248007506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006861823352573531</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008748039346757752</v>
+      </c>
+      <c r="C59">
+        <v>0.1592650257374445</v>
+      </c>
+      <c r="D59">
+        <v>-0.3018864244458681</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004713961313258747</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02291772330810826</v>
+      </c>
+      <c r="C60">
+        <v>0.2229430865921277</v>
+      </c>
+      <c r="D60">
+        <v>0.02167622279918208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01511293393749868</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002212338979078612</v>
+      </c>
+      <c r="C61">
+        <v>0.09598256122164175</v>
+      </c>
+      <c r="D61">
+        <v>0.05947503445328485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1705088967040272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1437744711474624</v>
+      </c>
+      <c r="C62">
+        <v>0.0871666703214225</v>
+      </c>
+      <c r="D62">
+        <v>0.04509126835625601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001696638252559437</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006219607027346267</v>
+      </c>
+      <c r="C63">
+        <v>0.05828424368062775</v>
+      </c>
+      <c r="D63">
+        <v>0.02747407369470162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.005705854814928522</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01468661657483654</v>
+      </c>
+      <c r="C64">
+        <v>0.1051613163190875</v>
+      </c>
+      <c r="D64">
+        <v>0.06277167523432745</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001567700707437567</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01700077711720713</v>
+      </c>
+      <c r="C65">
+        <v>0.1193057219288023</v>
+      </c>
+      <c r="D65">
+        <v>0.01700245863652318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008817598535302926</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01211542160010227</v>
+      </c>
+      <c r="C66">
+        <v>0.1599024837459644</v>
+      </c>
+      <c r="D66">
+        <v>0.1165134726397307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003394884977713961</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01540021360962084</v>
+      </c>
+      <c r="C67">
+        <v>0.06508772975455503</v>
+      </c>
+      <c r="D67">
+        <v>0.02959431081563561</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006676028413602137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.000450187900723296</v>
+      </c>
+      <c r="C68">
+        <v>0.0891622847215172</v>
+      </c>
+      <c r="D68">
+        <v>-0.2544890798094074</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00292155083830864</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005714492472879499</v>
+      </c>
+      <c r="C69">
+        <v>0.05030541213902989</v>
+      </c>
+      <c r="D69">
+        <v>0.03951962414993055</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-1.568350159303555e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001828409233320362</v>
+      </c>
+      <c r="C70">
+        <v>0.002397718293620385</v>
+      </c>
+      <c r="D70">
+        <v>0.0009007266404580649</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001524772215607879</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005741509389659423</v>
+      </c>
+      <c r="C71">
+        <v>0.09950061545185383</v>
+      </c>
+      <c r="D71">
+        <v>-0.2940313021424447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005793655607956281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.0150920019267387</v>
+      </c>
+      <c r="C72">
+        <v>0.1499009814279124</v>
+      </c>
+      <c r="D72">
+        <v>0.01999551856043574</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0118285074721729</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02855761397569385</v>
+      </c>
+      <c r="C73">
+        <v>0.2733117408056001</v>
+      </c>
+      <c r="D73">
+        <v>0.04730585414293587</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005029086771561558</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001041069432575603</v>
+      </c>
+      <c r="C74">
+        <v>0.1043944081023414</v>
+      </c>
+      <c r="D74">
+        <v>0.04435588421683009</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003980326784937832</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01046760095627117</v>
+      </c>
+      <c r="C75">
+        <v>0.1320250978843375</v>
+      </c>
+      <c r="D75">
+        <v>0.02437149837629859</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009088884393624073</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.020831427462883</v>
+      </c>
+      <c r="C76">
+        <v>0.1502762248558738</v>
+      </c>
+      <c r="D76">
+        <v>0.06629697509129366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.0001569120870783549</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02389101011763295</v>
+      </c>
+      <c r="C77">
+        <v>0.1348679219527889</v>
+      </c>
+      <c r="D77">
+        <v>0.05112843004095016</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001429620409307724</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01407724374385812</v>
+      </c>
+      <c r="C78">
+        <v>0.09439818976871622</v>
+      </c>
+      <c r="D78">
+        <v>0.06986484163385616</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02413630615303671</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03664340688945834</v>
+      </c>
+      <c r="C79">
+        <v>0.1578794369465648</v>
+      </c>
+      <c r="D79">
+        <v>0.03133036298858809</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004822971017256887</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01029109381587319</v>
+      </c>
+      <c r="C80">
+        <v>0.04139153189531607</v>
+      </c>
+      <c r="D80">
+        <v>0.03166724444317781</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0006226062146526233</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01444871307677765</v>
+      </c>
+      <c r="C81">
+        <v>0.1280515527821471</v>
+      </c>
+      <c r="D81">
+        <v>0.04865151205067121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005330145480130682</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01904046092870992</v>
+      </c>
+      <c r="C82">
+        <v>0.1440808646070639</v>
+      </c>
+      <c r="D82">
+        <v>0.0415425676574054</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008729362779490393</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009884367789905063</v>
+      </c>
+      <c r="C83">
+        <v>0.05736399793237973</v>
+      </c>
+      <c r="D83">
+        <v>0.05040081666591859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01250894405068496</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01145076505226939</v>
+      </c>
+      <c r="C84">
+        <v>0.03653397788934709</v>
+      </c>
+      <c r="D84">
+        <v>-0.009213742356182535</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01494657380554944</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02763226079981062</v>
+      </c>
+      <c r="C85">
+        <v>0.1320160716081762</v>
+      </c>
+      <c r="D85">
+        <v>0.04421423823580276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001226997108074865</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005335448647331036</v>
+      </c>
+      <c r="C86">
+        <v>0.05009559200883898</v>
+      </c>
+      <c r="D86">
+        <v>0.01961894366856782</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.005951019244825395</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01000140170118847</v>
+      </c>
+      <c r="C87">
+        <v>0.1321566211384324</v>
+      </c>
+      <c r="D87">
+        <v>0.06749898492495214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01314414011862984</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003119013221626452</v>
+      </c>
+      <c r="C88">
+        <v>0.06752325779535563</v>
+      </c>
+      <c r="D88">
+        <v>0.01461108512272033</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01538156796653195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001792234928201062</v>
+      </c>
+      <c r="C89">
+        <v>0.1480768532943653</v>
+      </c>
+      <c r="D89">
+        <v>-0.3484468154834905</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002920575077428519</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006518182342586903</v>
+      </c>
+      <c r="C90">
+        <v>0.1233547359325965</v>
+      </c>
+      <c r="D90">
+        <v>-0.3210465150196431</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006261609271028105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009930941794902297</v>
+      </c>
+      <c r="C91">
+        <v>0.1035243723256158</v>
+      </c>
+      <c r="D91">
+        <v>0.021147141547089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008749022351396312</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0001331890525392661</v>
+      </c>
+      <c r="C92">
+        <v>0.1372710613623892</v>
+      </c>
+      <c r="D92">
+        <v>-0.3388060413495725</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0008588148277929329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004527660220040784</v>
+      </c>
+      <c r="C93">
+        <v>0.1071106307141278</v>
+      </c>
+      <c r="D93">
+        <v>-0.315725280732665</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.0031402305050807</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02189100958845626</v>
+      </c>
+      <c r="C94">
+        <v>0.1547879069187233</v>
+      </c>
+      <c r="D94">
+        <v>0.03726502793195292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004942312414540104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01576076536233519</v>
+      </c>
+      <c r="C95">
+        <v>0.1272890116321444</v>
+      </c>
+      <c r="D95">
+        <v>0.0605332967229807</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001477361970478985</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03355510902630323</v>
+      </c>
+      <c r="C97">
+        <v>0.1881856914721323</v>
+      </c>
+      <c r="D97">
+        <v>0.0108549968904062</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004204495689245787</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03563920268942038</v>
+      </c>
+      <c r="C98">
+        <v>0.2501779841401377</v>
+      </c>
+      <c r="D98">
+        <v>0.04730257907216295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9833641035835377</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9829312143684013</v>
+      </c>
+      <c r="C99">
+        <v>-0.1098555949947811</v>
+      </c>
+      <c r="D99">
+        <v>-0.0271668076984972</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001448071845906193</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003022255140898163</v>
+      </c>
+      <c r="C101">
+        <v>0.05004483496478979</v>
+      </c>
+      <c r="D101">
+        <v>0.006344831732863979</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
